--- a/results/MVSE/freebase/MVSE_freebase<l10><NCEK>64.55.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l10><NCEK>64.55.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -750,11 +750,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -769,7 +765,7 @@
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -788,29 +784,29 @@
         <v>8192</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.11</v>
+        <v>2.24</v>
       </c>
       <c r="O5" t="n">
-        <v>63.38</v>
+        <v>63.46</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.18</v>
+        <v>0.67</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-03_36_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_30_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -822,7 +818,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -837,7 +837,7 @@
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -853,32 +853,32 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="O6" t="n">
-        <v>63.36</v>
+        <v>63.38</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-00_30_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-03_36_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -890,11 +890,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -909,7 +905,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -931,26 +927,26 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="O7" t="n">
-        <v>63.14</v>
+        <v>63.36</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_12_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_13_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -977,7 +973,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -993,32 +989,32 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O8" t="n">
-        <v>63.06</v>
+        <v>63.21</v>
       </c>
       <c r="P8" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2</v>
+        <v>0.53</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-01_55_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_11_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1049,7 +1045,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1071,18 +1067,90 @@
         <v>2</v>
       </c>
       <c r="N9" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>63.14</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_12_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>128</v>
+      </c>
+      <c r="H10" t="n">
+        <v>200</v>
+      </c>
+      <c r="I10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>4096</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
         <v>2.06</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O10" t="n">
         <v>62.77</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>0.11</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>0.63</v>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_58_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>

--- a/results/MVSE/freebase/MVSE_freebase<l10><NCEK>64.55.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l10><NCEK>64.55.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,7 +738,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -750,7 +750,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -765,7 +769,7 @@
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -784,29 +788,29 @@
         <v>8192</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="O5" t="n">
-        <v>63.46</v>
+        <v>63.38</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.67</v>
+        <v>0.18</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_30_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-03_36_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -818,11 +822,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -837,7 +837,7 @@
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -853,32 +853,32 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="O6" t="n">
-        <v>63.38</v>
+        <v>63.36</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-03_36_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_13_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -927,26 +927,26 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O7" t="n">
-        <v>63.36</v>
+        <v>63.21</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.36</v>
+        <v>0.53</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_13_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_11_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -958,7 +958,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -973,7 +977,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -995,26 +999,26 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.93</v>
+        <v>2.11</v>
       </c>
       <c r="O8" t="n">
-        <v>63.21</v>
+        <v>63.14</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.53</v>
+        <v>0.15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_11_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_12_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1026,11 +1030,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1045,7 +1045,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1061,26 +1061,26 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="O9" t="n">
-        <v>63.14</v>
+        <v>63.02</v>
       </c>
       <c r="P9" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_12_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-08_07_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
@@ -1153,6 +1153,74 @@
       <c r="R10" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_58_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>128</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>8192</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="O11" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-09_03_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>

--- a/results/MVSE/freebase/MVSE_freebase<l10><NCEK>64.55.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l10><NCEK>64.55.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,10 +519,15 @@
           <t>config2str</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>walk_hop</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -591,6 +596,7 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_45_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -663,10 +669,11 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_06_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -735,10 +742,11 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_52_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -807,6 +815,7 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-03_36_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -875,10 +884,11 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_13_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -905,7 +915,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -921,32 +931,33 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>63.21</v>
+        <v>63.35</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_11_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_55_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -958,11 +969,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -977,7 +984,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -999,26 +1006,27 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>2.11</v>
+        <v>1.93</v>
       </c>
       <c r="O8" t="n">
-        <v>63.14</v>
+        <v>63.21</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.15</v>
+        <v>0.53</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_12_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_11_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1038,14 +1046,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1060,33 +1068,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>8192</v>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O9" t="n">
-        <v>63.02</v>
+        <v>63.16</v>
       </c>
       <c r="P9" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-08_07_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_37_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1117,7 +1126,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1139,26 +1148,27 @@
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="O10" t="n">
-        <v>62.77</v>
+        <v>63.14</v>
       </c>
       <c r="P10" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.63</v>
+        <v>0.15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_58_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_12_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1185,7 +1195,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1207,22 +1217,165 @@
         <v>2</v>
       </c>
       <c r="N11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O11" t="n">
+        <v>63.02</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-08_07_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>128</v>
+      </c>
+      <c r="H12" t="n">
+        <v>200</v>
+      </c>
+      <c r="I12" t="n">
+        <v>50</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>4096</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O12" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_58_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>128</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>50</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>8192</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
         <v>2.01</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O13" t="n">
         <v>62.7</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P13" t="n">
         <v>0.02</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q13" t="n">
         <v>0.72</v>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-09_03_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
+      <c r="S13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/freebase/MVSE_freebase<l10><NCEK>64.55.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l10><NCEK>64.55.xlsx
@@ -596,7 +596,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_45_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -669,7 +671,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_06_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -742,7 +746,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_52_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -815,7 +821,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-03_36_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -831,7 +839,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -884,7 +896,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_13_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -900,7 +914,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -953,7 +971,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_55_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -969,7 +989,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1022,7 +1046,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_11_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1038,7 +1064,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1068,7 +1098,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>4096</v>
+      </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
@@ -1164,7 +1196,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_12_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1180,7 +1214,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1233,7 +1271,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-08_07_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1306,7 +1346,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_58_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1322,7 +1364,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1375,7 +1421,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-09_03_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
